--- a/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业餐饮营业面积.xlsx
+++ b/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业餐饮营业面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,1533 +593,1117 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>115.3</v>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>6.4</v>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>278.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>207.5</v>
+      </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>118.1</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>93.59999999999999</v>
+      </c>
       <c r="AD2" t="n">
-        <v>352.6</v>
-      </c>
-      <c r="AE2" t="inlineStr"/>
+        <v>742.6457</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.9</v>
+      </c>
       <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.7384</v>
+        <v>2.1758</v>
       </c>
       <c r="C3" t="n">
-        <v>45.603</v>
+        <v>64.91759999999999</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>81.12569999999999</v>
+        <v>122.3015</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.82</v>
+        <v>3.9592</v>
       </c>
       <c r="H3" t="n">
-        <v>6.0021</v>
+        <v>7.0954</v>
       </c>
       <c r="I3" t="n">
-        <v>320.8256</v>
+        <v>426.5391</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2619</v>
+        <v>2.6192</v>
       </c>
       <c r="K3" t="n">
-        <v>3.0903</v>
+        <v>1.1837</v>
       </c>
       <c r="L3" t="n">
-        <v>19.7</v>
+        <v>33.2</v>
       </c>
       <c r="M3" t="n">
-        <v>138.3562</v>
+        <v>316.9466</v>
       </c>
       <c r="N3" t="n">
-        <v>56.3308</v>
+        <v>216.6532</v>
       </c>
       <c r="O3" t="n">
-        <v>123.6409</v>
+        <v>289.6692</v>
       </c>
       <c r="P3" t="n">
-        <v>82.38760000000001</v>
+        <v>124.9207</v>
       </c>
       <c r="Q3" t="n">
-        <v>338.1582</v>
+        <v>510.592</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7387</v>
+        <v>1.1604</v>
       </c>
       <c r="S3" t="n">
-        <v>10.8108</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>24.9933</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11.1206</v>
+      </c>
       <c r="U3" t="n">
-        <v>18.9154</v>
+        <v>77.8832</v>
       </c>
       <c r="V3" t="n">
-        <v>6.3659</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.502</v>
-      </c>
+        <v>40.6089</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>175.2326</v>
+        <v>168.2914</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.2766</v>
+        <v>8.225300000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.3112</v>
+        <v>33.8564</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.3224</v>
+        <v>210.3731</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.0921</v>
+        <v>3.1699</v>
       </c>
       <c r="AC3" t="n">
-        <v>18.748</v>
+        <v>81.0236</v>
       </c>
       <c r="AD3" t="n">
-        <v>478.1</v>
+        <v>821.3689000000001</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3652</v>
+        <v>1.9089</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.296</v>
+        <v>14.0123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.8801</v>
+        <v>2.244</v>
       </c>
       <c r="C4" t="n">
-        <v>33.6647</v>
+        <v>69.5039</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>100.4715</v>
+        <v>185.0416</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.93</v>
+        <v>0.39</v>
       </c>
       <c r="H4" t="n">
-        <v>9.696199999999999</v>
+        <v>6.9529</v>
       </c>
       <c r="I4" t="n">
-        <v>381.5822</v>
+        <v>474.6405</v>
       </c>
       <c r="J4" t="n">
-        <v>1.496</v>
+        <v>2.4732</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5878</v>
-      </c>
-      <c r="L4" t="n">
-        <v>26.4105</v>
-      </c>
+        <v>1.9999</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>173.03</v>
+        <v>320.0657</v>
       </c>
       <c r="N4" t="n">
-        <v>93.07470000000001</v>
+        <v>248.3178</v>
       </c>
       <c r="O4" t="n">
-        <v>152.0988</v>
+        <v>324.6346</v>
       </c>
       <c r="P4" t="n">
-        <v>101.9675</v>
+        <v>187.5148</v>
       </c>
       <c r="Q4" t="n">
-        <v>397.5063</v>
+        <v>522.9988</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3395</v>
+        <v>1.726</v>
       </c>
       <c r="S4" t="n">
-        <v>9.296900000000001</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
+        <v>25.4376</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.282</v>
+      </c>
       <c r="U4" t="n">
-        <v>17.3755</v>
+        <v>74.5194</v>
       </c>
       <c r="V4" t="n">
-        <v>7.7391</v>
+        <v>47.0738</v>
       </c>
       <c r="W4" t="n">
-        <v>3.3356</v>
+        <v>0.1</v>
       </c>
       <c r="X4" t="n">
-        <v>164.5565</v>
+        <v>149.509</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.0821</v>
+        <v>8.4101</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.3819</v>
+        <v>37.1483</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.3561</v>
+        <v>195.1674</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.042899999999999</v>
+        <v>0.6756</v>
       </c>
       <c r="AC4" t="n">
-        <v>25.028</v>
+        <v>87.02589999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>588.2</v>
+        <v>869.2256</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.6699</v>
+        <v>1.8669</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.6864</v>
+        <v>14.6393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.6652</v>
+        <v>1.561</v>
       </c>
       <c r="C5" t="n">
-        <v>45.0244</v>
+        <v>73.3103</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>113.2034</v>
+        <v>174.7345</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>2.004</v>
+        <v>0.4356</v>
       </c>
       <c r="H5" t="n">
-        <v>8.9953</v>
+        <v>7.4461</v>
       </c>
       <c r="I5" t="n">
-        <v>352.3535</v>
+        <v>487.7933</v>
       </c>
       <c r="J5" t="n">
-        <v>1.556</v>
+        <v>2.392</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0268</v>
+        <v>2.7646</v>
       </c>
       <c r="L5" t="n">
-        <v>19.403</v>
+        <v>0.54</v>
       </c>
       <c r="M5" t="n">
-        <v>186.386</v>
+        <v>372.781</v>
       </c>
       <c r="N5" t="n">
-        <v>116.2934</v>
+        <v>297.3697</v>
       </c>
       <c r="O5" t="n">
-        <v>158.7575</v>
+        <v>369.9622</v>
       </c>
       <c r="P5" t="n">
-        <v>113.2034</v>
+        <v>177.1265</v>
       </c>
       <c r="Q5" t="n">
-        <v>408.3636</v>
+        <v>540.0921</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6713</v>
+        <v>1.7085</v>
       </c>
       <c r="S5" t="n">
-        <v>7.2737</v>
+        <v>22.3935</v>
       </c>
       <c r="T5" t="n">
-        <v>8.633599999999999</v>
+        <v>0.282</v>
       </c>
       <c r="U5" t="n">
-        <v>40.7429</v>
+        <v>76.4931</v>
       </c>
       <c r="V5" t="n">
-        <v>23.1643</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.825</v>
-      </c>
+        <v>52.1091</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>142.1921</v>
+        <v>176.852</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.6676</v>
+        <v>8.1844</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.938</v>
+        <v>33.4337</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.6227</v>
+        <v>218.4701</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.6781</v>
+        <v>0.645</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.17449999999999</v>
+        <v>87.08459999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>629.2478</v>
+        <v>937.0674</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.644</v>
+        <v>1.2669</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.366</v>
+        <v>19.567</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.9698</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>54.6556</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>77.2437</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.1957</v>
+      </c>
       <c r="E6" t="n">
-        <v>114.9722</v>
+        <v>179.4204</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>3.291</v>
+        <v>0.4356</v>
       </c>
       <c r="H6" t="n">
-        <v>12.531</v>
+        <v>8.8279</v>
       </c>
       <c r="I6" t="n">
-        <v>374.1519</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>499.9933</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.6886</v>
+      </c>
       <c r="K6" t="n">
-        <v>1.063</v>
+        <v>2.6906</v>
       </c>
       <c r="L6" t="n">
-        <v>25.497</v>
+        <v>0.2445</v>
       </c>
       <c r="M6" t="n">
-        <v>232.591</v>
+        <v>421.8255</v>
       </c>
       <c r="N6" t="n">
-        <v>146.4686</v>
+        <v>325.1416</v>
       </c>
       <c r="O6" t="n">
-        <v>191.7911</v>
+        <v>397.8351</v>
       </c>
       <c r="P6" t="n">
-        <v>114.9722</v>
+        <v>181.109</v>
       </c>
       <c r="Q6" t="n">
-        <v>443.2579</v>
+        <v>587.4509</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7884</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>8.3855</v>
+        <v>25.0771</v>
       </c>
       <c r="T6" t="n">
-        <v>9.744999999999999</v>
+        <v>0.282</v>
       </c>
       <c r="U6" t="n">
-        <v>45.1126</v>
+        <v>98.1833</v>
       </c>
       <c r="V6" t="n">
-        <v>25.1937</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.0585</v>
-      </c>
+        <v>71.1242</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>150.7868</v>
+        <v>184.3907</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.9849</v>
+        <v>9.325900000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.184</v>
+        <v>35.4044</v>
       </c>
       <c r="AA6" t="n">
-        <v>183.0142</v>
+        <v>229.121</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.4681</v>
+        <v>0.645</v>
       </c>
       <c r="AC6" t="n">
-        <v>66.6994</v>
+        <v>84.7332</v>
       </c>
       <c r="AD6" t="n">
-        <v>651.8555</v>
+        <v>1020.0021</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.644</v>
+        <v>1.2589</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.2755</v>
+        <v>25.8882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.297000000000001</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>56.8129</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>62.4004</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.923</v>
+      </c>
       <c r="E7" t="n">
-        <v>130.4871</v>
+        <v>182.1724</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>2.158</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>0.3986</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.7679</v>
+      </c>
       <c r="I7" t="n">
-        <v>389.3953</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>503.1102</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.5298</v>
+      </c>
       <c r="K7" t="n">
-        <v>1.7294</v>
-      </c>
-      <c r="L7" t="n">
-        <v>32.051</v>
-      </c>
+        <v>2.7233</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>244.7766</v>
+        <v>371.2177</v>
       </c>
       <c r="N7" t="n">
-        <v>147.6157</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
+        <v>283.8943</v>
+      </c>
+      <c r="O7" t="n">
+        <v>406.8027</v>
+      </c>
       <c r="P7" t="n">
-        <v>130.4871</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>184.7022</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>515.6088999999999</v>
+      </c>
       <c r="R7" t="n">
-        <v>2.3707</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>11.1731</v>
+        <v>23.1067</v>
       </c>
       <c r="T7" t="n">
-        <v>10.52</v>
+        <v>0.156</v>
       </c>
       <c r="U7" t="n">
-        <v>57.3828</v>
+        <v>96.5626</v>
       </c>
       <c r="V7" t="n">
-        <v>33.319</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.8913</v>
-      </c>
+        <v>71.59990000000001</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>152.6396</v>
+        <v>170.7097</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.674799999999999</v>
+        <v>7.7847</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5222</v>
+        <v>24.2713</v>
       </c>
       <c r="AA7" t="n">
-        <v>181.7279</v>
+        <v>202.7657</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.884</v>
+        <v>0.535</v>
       </c>
       <c r="AC7" t="n">
-        <v>64.5386</v>
+        <v>110.7265</v>
       </c>
       <c r="AD7" t="n">
-        <v>691.5547</v>
+        <v>970.8905</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.8703</v>
-      </c>
-      <c r="AF7" t="inlineStr"/>
+        <v>1.2589</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>40.711</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>54.7307</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.4151</v>
+      </c>
       <c r="E8" t="n">
-        <v>115.3</v>
+        <v>171.2522</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>0.3986</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.5199</v>
+      </c>
       <c r="I8" t="n">
-        <v>403.2</v>
+        <v>497.2631</v>
       </c>
       <c r="J8" t="n">
-        <v>2.8</v>
+        <v>1.9279</v>
       </c>
       <c r="K8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.9</v>
-      </c>
+        <v>4.095</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>278.6</v>
+        <v>404.2899</v>
       </c>
       <c r="N8" t="n">
-        <v>207.5</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>320.1441</v>
+      </c>
+      <c r="O8" t="n">
+        <v>445.8859</v>
+      </c>
       <c r="P8" t="n">
-        <v>118.1</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+        <v>173.1801</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>530.3794</v>
+      </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>20.3</v>
+        <v>36.2799</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>1.0484</v>
       </c>
       <c r="U8" t="n">
-        <v>60.8</v>
+        <v>135.3507</v>
       </c>
       <c r="V8" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.5</v>
-      </c>
+        <v>96.3224</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>137.4</v>
+        <v>185.3928</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.199999999999999</v>
+        <v>7.3037</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.1</v>
+        <v>3.2275</v>
       </c>
       <c r="AA8" t="n">
-        <v>177.3</v>
+        <v>195.924</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.1</v>
+        <v>0.603</v>
       </c>
       <c r="AC8" t="n">
-        <v>93.59999999999999</v>
+        <v>121.8035</v>
       </c>
       <c r="AD8" t="n">
-        <v>742.6457</v>
+        <v>1036.9</v>
       </c>
       <c r="AE8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AF8" t="inlineStr"/>
+        <v>1.2589</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>52.1185</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.1758</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>64.91759999999999</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>71.3806</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.3549</v>
+      </c>
       <c r="E9" t="n">
-        <v>122.3015</v>
+        <v>163.7793</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>3.9592</v>
+        <v>0.33</v>
       </c>
       <c r="H9" t="n">
-        <v>7.0954</v>
+        <v>5.3914</v>
       </c>
       <c r="I9" t="n">
-        <v>426.5391</v>
+        <v>456.6188</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6192</v>
+        <v>1.4707</v>
       </c>
       <c r="K9" t="n">
-        <v>1.1837</v>
+        <v>3.3789</v>
       </c>
       <c r="L9" t="n">
-        <v>33.2</v>
+        <v>8.4389</v>
       </c>
       <c r="M9" t="n">
-        <v>316.9466</v>
+        <v>435.183</v>
       </c>
       <c r="N9" t="n">
-        <v>216.6532</v>
+        <v>326.0086</v>
       </c>
       <c r="O9" t="n">
-        <v>289.6692</v>
+        <v>510.5289</v>
       </c>
       <c r="P9" t="n">
-        <v>124.9207</v>
+        <v>165.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>510.592</v>
+        <v>499.0978</v>
       </c>
       <c r="R9" t="n">
-        <v>1.1604</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>24.9933</v>
+        <v>35.7094</v>
       </c>
       <c r="T9" t="n">
-        <v>11.1206</v>
+        <v>0.9225</v>
       </c>
       <c r="U9" t="n">
-        <v>77.8832</v>
+        <v>183.6028</v>
       </c>
       <c r="V9" t="n">
-        <v>40.6089</v>
+        <v>145.2709</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>168.2914</v>
+        <v>174.4107</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.225300000000001</v>
+        <v>6.3791</v>
       </c>
       <c r="Z9" t="n">
-        <v>33.8564</v>
+        <v>2.3621</v>
       </c>
       <c r="AA9" t="n">
-        <v>210.3731</v>
+        <v>183.1519</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.1699</v>
+        <v>0.839</v>
       </c>
       <c r="AC9" t="n">
-        <v>81.0236</v>
+        <v>102.469</v>
       </c>
       <c r="AD9" t="n">
-        <v>821.3689000000001</v>
+        <v>1075.4046</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.9089</v>
+        <v>1.2</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.0123</v>
+        <v>60.3865</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.244</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>69.5039</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>72.4432</v>
+      </c>
+      <c r="D10" t="n">
+        <v>38.4943</v>
+      </c>
       <c r="E10" t="n">
-        <v>185.0416</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>126.0998</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.12</v>
+      </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="n">
-        <v>6.9529</v>
+        <v>3.9617</v>
       </c>
       <c r="I10" t="n">
-        <v>474.6405</v>
+        <v>427.9601</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4732</v>
+        <v>0.2</v>
       </c>
       <c r="K10" t="n">
-        <v>1.9999</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>3.4319</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9.881600000000001</v>
+      </c>
       <c r="M10" t="n">
-        <v>320.0657</v>
+        <v>422.9451</v>
       </c>
       <c r="N10" t="n">
-        <v>248.3178</v>
+        <v>302.126</v>
       </c>
       <c r="O10" t="n">
-        <v>324.6346</v>
+        <v>500.0786</v>
       </c>
       <c r="P10" t="n">
-        <v>187.5148</v>
+        <v>126.2998</v>
       </c>
       <c r="Q10" t="n">
-        <v>522.9988</v>
+        <v>492.9885</v>
       </c>
       <c r="R10" t="n">
-        <v>1.726</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>25.4376</v>
+        <v>32.3019</v>
       </c>
       <c r="T10" t="n">
-        <v>0.282</v>
+        <v>4.1161</v>
       </c>
       <c r="U10" t="n">
-        <v>74.5194</v>
+        <v>224.1005</v>
       </c>
       <c r="V10" t="n">
-        <v>47.0738</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.1</v>
-      </c>
+        <v>186.0625</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>149.509</v>
+        <v>188.3652</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.4101</v>
+        <v>4.8197</v>
       </c>
       <c r="Z10" t="n">
-        <v>37.1483</v>
+        <v>1.9781</v>
       </c>
       <c r="AA10" t="n">
-        <v>195.1674</v>
+        <v>195.163</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6756</v>
+        <v>0.839</v>
       </c>
       <c r="AC10" t="n">
-        <v>87.02589999999999</v>
+        <v>100.9964</v>
       </c>
       <c r="AD10" t="n">
-        <v>869.2256</v>
+        <v>1075</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.8669</v>
+        <v>1.13</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.6393</v>
+        <v>77.9769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.561</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>73.3103</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>79.0436</v>
+      </c>
+      <c r="D11" t="n">
+        <v>39.5099</v>
+      </c>
       <c r="E11" t="n">
-        <v>174.7345</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>139.3379</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.127</v>
+      </c>
       <c r="G11" t="n">
-        <v>0.4356</v>
+        <v>0.3098</v>
       </c>
       <c r="H11" t="n">
-        <v>7.4461</v>
+        <v>3.925</v>
       </c>
       <c r="I11" t="n">
-        <v>487.7933</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.392</v>
-      </c>
+        <v>419.032</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>2.7646</v>
+        <v>2.9211</v>
       </c>
       <c r="L11" t="n">
-        <v>0.54</v>
+        <v>11.5659</v>
       </c>
       <c r="M11" t="n">
-        <v>372.781</v>
+        <v>457.152</v>
       </c>
       <c r="N11" t="n">
-        <v>297.3697</v>
+        <v>327.0326</v>
       </c>
       <c r="O11" t="n">
-        <v>369.9622</v>
+        <v>551.0335</v>
       </c>
       <c r="P11" t="n">
-        <v>177.1265</v>
+        <v>139.3379</v>
       </c>
       <c r="Q11" t="n">
-        <v>540.0921</v>
+        <v>484.0722</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7085</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>22.3935</v>
+        <v>36.6889</v>
       </c>
       <c r="T11" t="n">
-        <v>0.282</v>
+        <v>3.5868</v>
       </c>
       <c r="U11" t="n">
-        <v>76.4931</v>
+        <v>275.2914</v>
       </c>
       <c r="V11" t="n">
-        <v>52.1091</v>
-      </c>
-      <c r="W11" t="inlineStr"/>
+        <v>232.8887</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.472</v>
+      </c>
       <c r="X11" t="n">
-        <v>176.852</v>
+        <v>164.806</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.1844</v>
+        <v>4.8507</v>
       </c>
       <c r="Z11" t="n">
-        <v>33.4337</v>
+        <v>1.4286</v>
       </c>
       <c r="AA11" t="n">
-        <v>218.4701</v>
+        <v>171.5573</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.645</v>
+        <v>0.827</v>
       </c>
       <c r="AC11" t="n">
-        <v>87.08459999999999</v>
+        <v>102.8789</v>
       </c>
       <c r="AD11" t="n">
-        <v>937.0674</v>
+        <v>1151.4754</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.2669</v>
+        <v>1.2</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.567</v>
+        <v>112.4447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>77.2437</v>
+        <v>80.80759999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>17.1957</v>
+        <v>40.4626</v>
       </c>
       <c r="E12" t="n">
-        <v>179.4204</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>171.1051</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.127</v>
+      </c>
       <c r="G12" t="n">
-        <v>0.4356</v>
+        <v>0.2686</v>
       </c>
       <c r="H12" t="n">
-        <v>8.8279</v>
+        <v>53.0327</v>
       </c>
       <c r="I12" t="n">
-        <v>499.9933</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.6886</v>
-      </c>
+        <v>452.5736</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>2.6906</v>
+        <v>2.9307</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2445</v>
+        <v>12.665</v>
       </c>
       <c r="M12" t="n">
-        <v>421.8255</v>
+        <v>479.3148</v>
       </c>
       <c r="N12" t="n">
-        <v>325.1416</v>
+        <v>345.3796</v>
       </c>
       <c r="O12" t="n">
-        <v>397.8351</v>
+        <v>576.4987</v>
       </c>
       <c r="P12" t="n">
-        <v>181.109</v>
+        <v>171.1051</v>
       </c>
       <c r="Q12" t="n">
-        <v>587.4509</v>
+        <v>461.9892</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>2.5812</v>
       </c>
       <c r="S12" t="n">
-        <v>25.0771</v>
+        <v>35.2306</v>
       </c>
       <c r="T12" t="n">
-        <v>0.282</v>
+        <v>3.3688</v>
       </c>
       <c r="U12" t="n">
-        <v>98.1833</v>
+        <v>284.2727</v>
       </c>
       <c r="V12" t="n">
-        <v>71.1242</v>
+        <v>242.9651</v>
       </c>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="n">
-        <v>184.3907</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.325900000000001</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>35.4044</v>
-      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>229.121</v>
+        <v>177.2449</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.645</v>
+        <v>0.867</v>
       </c>
       <c r="AC12" t="n">
-        <v>84.7332</v>
+        <v>97.7325</v>
       </c>
       <c r="AD12" t="n">
-        <v>1020.0021</v>
+        <v>1216.1611</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.2589</v>
+        <v>1.2</v>
       </c>
       <c r="AF12" t="n">
-        <v>25.8882</v>
+        <v>123.4157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>62.4004</v>
+        <v>84.1752</v>
       </c>
       <c r="D13" t="n">
-        <v>22.923</v>
+        <v>44.2914</v>
       </c>
       <c r="E13" t="n">
-        <v>182.1724</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>124.4266</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3226</v>
+      </c>
       <c r="G13" t="n">
-        <v>0.3986</v>
+        <v>0.395</v>
       </c>
       <c r="H13" t="n">
-        <v>7.7679</v>
+        <v>76.33029999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>503.1102</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.5298</v>
-      </c>
+        <v>514.912</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>2.7233</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>4.5884</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14.4082</v>
+      </c>
       <c r="M13" t="n">
-        <v>371.2177</v>
+        <v>504.5586</v>
       </c>
       <c r="N13" t="n">
-        <v>283.8943</v>
+        <v>361.6838</v>
       </c>
       <c r="O13" t="n">
-        <v>406.8027</v>
+        <v>619.5776</v>
       </c>
       <c r="P13" t="n">
-        <v>184.7022</v>
+        <v>124.4266</v>
       </c>
       <c r="Q13" t="n">
-        <v>515.6088999999999</v>
+        <v>489.5685</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>2.7183</v>
       </c>
       <c r="S13" t="n">
-        <v>23.1067</v>
+        <v>39.7081</v>
       </c>
       <c r="T13" t="n">
-        <v>0.156</v>
+        <v>2.7455</v>
       </c>
       <c r="U13" t="n">
-        <v>96.5626</v>
+        <v>319.69</v>
       </c>
       <c r="V13" t="n">
-        <v>71.59990000000001</v>
+        <v>274.1955</v>
       </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>170.7097</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>7.7847</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>24.2713</v>
-      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>202.7657</v>
+        <v>280.1201</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.535</v>
+        <v>0.867</v>
       </c>
       <c r="AC13" t="n">
-        <v>110.7265</v>
+        <v>102.0213</v>
       </c>
       <c r="AD13" t="n">
-        <v>970.8905</v>
+        <v>1339.1606</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.2589</v>
+        <v>1.2</v>
       </c>
       <c r="AF13" t="n">
-        <v>40.711</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>54.7307</v>
-      </c>
-      <c r="D14" t="n">
-        <v>27.4151</v>
-      </c>
-      <c r="E14" t="n">
-        <v>171.2522</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>0.3986</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8.5199</v>
-      </c>
-      <c r="I14" t="n">
-        <v>497.2631</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.9279</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.095</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>404.2899</v>
-      </c>
-      <c r="N14" t="n">
-        <v>320.1441</v>
-      </c>
-      <c r="O14" t="n">
-        <v>445.8859</v>
-      </c>
-      <c r="P14" t="n">
-        <v>173.1801</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>530.3794</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>36.2799</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.0484</v>
-      </c>
-      <c r="U14" t="n">
-        <v>135.3507</v>
-      </c>
-      <c r="V14" t="n">
-        <v>96.3224</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
-        <v>185.3928</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>7.3037</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3.2275</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>195.924</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>121.8035</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1036.9</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.2589</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>52.1185</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>71.3806</v>
-      </c>
-      <c r="D15" t="n">
-        <v>29.3549</v>
-      </c>
-      <c r="E15" t="n">
-        <v>163.7793</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5.3914</v>
-      </c>
-      <c r="I15" t="n">
-        <v>456.6188</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.4707</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.3789</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8.4389</v>
-      </c>
-      <c r="M15" t="n">
-        <v>435.183</v>
-      </c>
-      <c r="N15" t="n">
-        <v>326.0086</v>
-      </c>
-      <c r="O15" t="n">
-        <v>510.5289</v>
-      </c>
-      <c r="P15" t="n">
-        <v>165.25</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>499.0978</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S15" t="n">
-        <v>35.7094</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.9225</v>
-      </c>
-      <c r="U15" t="n">
-        <v>183.6028</v>
-      </c>
-      <c r="V15" t="n">
-        <v>145.2709</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>174.4107</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>6.3791</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>2.3621</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>183.1519</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>102.469</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1075.4046</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>60.3865</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>72.4432</v>
-      </c>
-      <c r="D16" t="n">
-        <v>38.4943</v>
-      </c>
-      <c r="E16" t="n">
-        <v>126.0998</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.9617</v>
-      </c>
-      <c r="I16" t="n">
-        <v>427.9601</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.4319</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9.881600000000001</v>
-      </c>
-      <c r="M16" t="n">
-        <v>422.9451</v>
-      </c>
-      <c r="N16" t="n">
-        <v>302.126</v>
-      </c>
-      <c r="O16" t="n">
-        <v>500.0786</v>
-      </c>
-      <c r="P16" t="n">
-        <v>126.2998</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>492.9885</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>32.3019</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4.1161</v>
-      </c>
-      <c r="U16" t="n">
-        <v>224.1005</v>
-      </c>
-      <c r="V16" t="n">
-        <v>186.0625</v>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="n">
-        <v>188.3652</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>4.8197</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.9781</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>195.163</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>100.9964</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1075</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>77.9769</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>79.0436</v>
-      </c>
-      <c r="D17" t="n">
-        <v>39.5099</v>
-      </c>
-      <c r="E17" t="n">
-        <v>139.3379</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.3098</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="I17" t="n">
-        <v>419.032</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>2.9211</v>
-      </c>
-      <c r="L17" t="n">
-        <v>11.5659</v>
-      </c>
-      <c r="M17" t="n">
-        <v>457.152</v>
-      </c>
-      <c r="N17" t="n">
-        <v>327.0326</v>
-      </c>
-      <c r="O17" t="n">
-        <v>551.0335</v>
-      </c>
-      <c r="P17" t="n">
-        <v>139.3379</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>484.0722</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>36.6889</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.5868</v>
-      </c>
-      <c r="U17" t="n">
-        <v>275.2914</v>
-      </c>
-      <c r="V17" t="n">
-        <v>232.8887</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="X17" t="n">
-        <v>164.806</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>4.8507</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.4286</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>171.5573</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.827</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>102.8789</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1151.4754</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>112.4447</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>80.80759999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>40.4626</v>
-      </c>
-      <c r="E18" t="n">
-        <v>171.1051</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.2686</v>
-      </c>
-      <c r="H18" t="n">
-        <v>53.0327</v>
-      </c>
-      <c r="I18" t="n">
-        <v>452.5736</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>2.9307</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12.665</v>
-      </c>
-      <c r="M18" t="n">
-        <v>479.3148</v>
-      </c>
-      <c r="N18" t="n">
-        <v>345.3796</v>
-      </c>
-      <c r="O18" t="n">
-        <v>576.4987</v>
-      </c>
-      <c r="P18" t="n">
-        <v>171.1051</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>461.9892</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.5812</v>
-      </c>
-      <c r="S18" t="n">
-        <v>35.2306</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.3688</v>
-      </c>
-      <c r="U18" t="n">
-        <v>284.2727</v>
-      </c>
-      <c r="V18" t="n">
-        <v>242.9651</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>177.2449</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.867</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>97.7325</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1216.1611</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>123.4157</v>
+        <v>152.3906</v>
       </c>
     </row>
   </sheetData>
